--- a/PRODUTOS/Bazar/Bazar - Textil.xlsx
+++ b/PRODUTOS/Bazar/Bazar - Textil.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pano De Chao Medio 42x67</t>
+          <t>Sacola De Papel P/vinho Un</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e4fd666-5623-4d9c-aef9-41694a02acf6.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891924244365</t>
         </is>
       </c>
     </row>
@@ -501,6 +511,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da7bf4a6-f8de-48c0-a2af-bee2bbfa04d9.jpg</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891172523311</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pano Toalex Limppano</t>
+          <t>Pano Multi Uso Miraflex Azul 33x50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffa7aefb-2b61-43fd-b685-47ec3a087b73.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0d98ceb-eb0d-47e0-9537-e814227f5cb8.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896942216226</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pano De Pia Pratico 30x32</t>
+          <t>Pano Multi Uso Miraflex Rosa 33x50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/397e7794-5188-40c9-96ea-367fe48294d7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62881420-d8f8-434e-bcec-9e76b48ce88f.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896942216226</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pano Limppano Azul Furatto 5 Uni.</t>
+          <t>Pano Furatto Limppano Roll Azul</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d41acaca-9921-45ee-a339-c65b81036864.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c52ab529-5fd3-411c-bc64-14efded927e7.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896021624928</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pano Multi Uso Mira Dancer 40x36cm</t>
+          <t>Pano Furatto Limppano Roll Lavanda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 5,98</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9e983fd-c623-45cd-ae5f-5ee5eebc7c24.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2fbd740-a8c2-466e-b9bf-e483d34c1cf5.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896021624997</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pano Furatto Limppano Roll Azul</t>
+          <t>Pano De Copa Decorado 40x65</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c52ab529-5fd3-411c-bc64-14efded927e7.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896942266085</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Multiuso Perfex Ype C/5un Azul</t>
+          <t>Pano Toalex Limppano</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 11,98</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a16d5be8-bd4d-4d27-980e-7b0a8ce49099.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffa7aefb-2b61-43fd-b685-47ec3a087b73.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896021626533</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pano De Pia Alvejado 30x34cm</t>
+          <t>Pano Multiuso Microfibra 29x29cm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 3,98</t>
+          <t>R$ 22,98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db7f9d27-1a2a-42a0-b3d8-4724ef652041.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896942269383</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pano De Copa Especial 40x65</t>
+          <t>Saco Alvejado Pratico 40x60</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 11,98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aabd37f9-a521-4594-9e5d-ab8d99f84b3c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce3a8884-ce2c-4817-a63f-9291dec32a37.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896942267105</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Saco Alvejado Listrado 42x64</t>
+          <t>Pano Limppano Lavanda Furatto 5 Uni.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d1df4e2-c4ad-4fb5-bfa1-e010440c778b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2db2f6f4-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896021623389</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sacola Retornavel B4u Coleção A4</t>
+          <t>Pano Limppano Limão Furatto 5 Uni</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/445bc191-1bde-41a2-ace1-83b9c052545c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e3d7820-917f-4c91-82da-5517b654bda0.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896021623303</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pano Limppano Lavanda Furatto 5 Uni.</t>
+          <t>Pano Microfibra P/moveis Verde Agua Un Flashlimp</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 15,98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2db2f6f4-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65346735-1018-48d8-bdc4-aa88d78ba785.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7897753676728</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pano Furatto Limppano Roll Lavanda</t>
+          <t>Pano Cozinha Microfibra Condor Esfrega E Seca 1680</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2fbd740-a8c2-466e-b9bf-e483d34c1cf5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6fd2ccb8-7b4d-42d2-bd79-37fb8ba73992.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891055782408</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Saco Xadrez 40x68cm</t>
+          <t>Pano De Chao Condor Microfibra 1676</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64253658-00be-4abf-a3e4-403c7831b2b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a7e4e16-413a-4bc5-a52e-e38c237efc7d.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891055772102</t>
         </is>
       </c>
     </row>
@@ -866,7 +946,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pano Limppano Limão Furatto 5 Uni</t>
+          <t>Pano Folha Multiuso Condor C/5 Un Azul</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -876,7 +956,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5e3d7820-917f-4c91-82da-5517b654bda0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68c904a7-4e47-410d-b8dc-f150b183eee5.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891055595800</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pano Cozinha Microfibra Condor Esfrega E Seca 1680</t>
+          <t>Pano Multiuso Microfibra Condor 1677</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6fd2ccb8-7b4d-42d2-bd79-37fb8ba73992.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22cfe910-fa6b-4cd4-9dd9-bdc5ec8177cb.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891055772201</t>
         </is>
       </c>
     </row>
@@ -920,7 +1010,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Flanela Krau Branca 28x49cm</t>
+          <t>Pano Mult Life Clean Pct 5un Azul</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -930,7 +1020,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3689372-a776-457d-824f-ac590e0b16e5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f354f030-db1c-473e-8d0f-1f4847dcc0fb.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7898958607487</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Chinelo Ipanema Classica Feminina</t>
+          <t>Pano Mult Life Clean Rolo C/ 25un Azul</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35558db8-8728-4737-aa9c-39ed091324e7.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7898958607401</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pano Multi Uso Miraflex Azul 33x50</t>
+          <t>Pano Mult Life Clean Rolo C/ 25un Laranja</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0d98ceb-eb0d-47e0-9537-e814227f5cb8.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7898958607401</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Saco Alvejado Pratico 40x60</t>
+          <t>Pano Mult Life Clean Rolo C/ 25un Verde</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 11,98</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce3a8884-ce2c-4817-a63f-9291dec32a37.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7898958607401</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1138,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pano De Pia Tradicional 28x40</t>
+          <t>Pano De Pia Estampado 30x32</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1039,6 +1149,11 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896942267655</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pano Mult Life Clean Pct 5un Azul</t>
+          <t>Avental Tradicional Mirapano 45x62</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f354f030-db1c-473e-8d0f-1f4847dcc0fb.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896942267884</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pano Multi Uso Miraflex Rosa 33x50</t>
+          <t>Limppano Tango 40cmx38cm C/2un</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62881420-d8f8-434e-bcec-9e76b48ce88f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bdb4a948-dc4e-44f8-84d7-352e5ccde8c2.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896021621668</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pano Microf Multi 3pc Color Un Flashlimp</t>
+          <t>Chinelo Ipanema Classica Infantil</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 16,98</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95e7cc24-e412-4fa5-a6f3-7b81f44b29f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a648e854-ea60-4422-b322-dce6f7eca685.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7890875847465</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1266,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Chinelo Ipanema Classic Ad Masculina</t>
+          <t>Chinelo Ipanema Classica Feminina</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1146,7 +1276,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88be833e-edba-4b5a-854e-746bef5199b3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/35558db8-8728-4737-aa9c-39ed091324e7.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7890875682639</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Manta Colors Bene Casa 70x94cm Est/lisa</t>
+          <t>Multiuso Perfex Ype C/5un Azul</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 11,98</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18ce09e8-5085-423d-af71-2d9185855b53.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a16d5be8-bd4d-4d27-980e-7b0a8ce49099.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896090101351</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pano Mult Life Clean Rolo C/ 25un Azul</t>
+          <t>Pano Limppano Azul Furatto 5 Uni.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d41acaca-9921-45ee-a339-c65b81036864.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896021621163</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pano Multiuso Microfibra Condor 1677</t>
+          <t>Saco Alvejado Listrado 42x64</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22cfe910-fa6b-4cd4-9dd9-bdc5ec8177cb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d1df4e2-c4ad-4fb5-bfa1-e010440c778b.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896942269154</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pano Microfibra P/moveis Verde Agua Un Flashlimp</t>
+          <t>Pano De Copa Especial 40x65</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 15,98</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65346735-1018-48d8-bdc4-aa88d78ba785.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aabd37f9-a521-4594-9e5d-ab8d99f84b3c.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896942265873</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pano De Copa Tradicional 38x65</t>
+          <t>Pano De Chao Medio 42x67</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e4fd666-5623-4d9c-aef9-41694a02acf6.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896942266047</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Flanela Pratica M 28x49cm</t>
+          <t>Pano De Pia Alvejado 30x34cm</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 4,98</t>
+          <t>R$ 3,98</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db7f9d27-1a2a-42a0-b3d8-4724ef652041.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896942265125</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pano Mult Life Clean Rolo C/ 25un Laranja</t>
+          <t>Pano De Pia Tradicional 28x40</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,98</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896942265842</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Flanela Pratica P 28x39cm</t>
+          <t>Pano De Pia Pratico 30x32</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 3,98</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/397e7794-5188-40c9-96ea-367fe48294d7.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896942267655</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pano Folha Multiuso Condor C/5 Un Azul</t>
+          <t>Pano De Limpeza Mirapano 45x62</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68c904a7-4e47-410d-b8dc-f150b183eee5.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896942269185</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pano Mult Life Clean Rolo C/ 25un Verde</t>
+          <t>Saco Xadrez 40x68cm</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64253658-00be-4abf-a3e4-403c7831b2b5.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896942269178</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Limppano Tango 40cmx38cm C/2un</t>
+          <t>Flanela Pratica P 28x39cm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 3,98</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bdb4a948-dc4e-44f8-84d7-352e5ccde8c2.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896942265316</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pano De Pia Estampado 30x32</t>
+          <t>Flanela Pratica M 28x49cm</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 3,98</t>
+          <t>R$ 4,98</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896942265323</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pano De Limpeza Mirapano 45x62</t>
+          <t>Flanela Pratica G 38x59cm</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 6,98</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896942265347</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pano De Chao Condor Microfibra 1676</t>
+          <t>Flanela Krau Branca 28x49cm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a7e4e16-413a-4bc5-a52e-e38c237efc7d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3689372-a776-457d-824f-ac590e0b16e5.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896942265422</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Flanela Pratica G 38x59cm</t>
+          <t>Pano Multi Uso Mira Dancer 40x36cm</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 6,98</t>
+          <t>R$ 5,98</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9e983fd-c623-45cd-ae5f-5ee5eebc7c24.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896942215014</t>
         </is>
       </c>
     </row>
@@ -1568,12 +1778,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pano Microfibra P/banheiro Verde Esmeralda Un Flashlimp</t>
+          <t>Pano De Copa Tradicional 38x65</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1581,301 +1791,9 @@
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Pano De Copa Decorado 40x65</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>R$ 10,98</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Avental Tradicional Mirapano 45x62</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Boia Redonda Plash Fun Mor 60cm</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>R$ 4,93</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/77bf6a8b-a021-40c1-93c9-711165223252.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Chinelo Ipanema Anatomica Ad Masculina</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b06ef3c1-52e4-49ab-b7a7-caf91f0e67ca.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Chinelo Ipanema Classica Infantil</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a648e854-ea60-4422-b322-dce6f7eca685.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Chinelo Ipanema Temas Inf Fem/masc</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0678b33f-5837-48f3-b4bc-bd1e69347557.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Chinelo Ipanema Barbie Style Infantil</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>R$ 43,98</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e8bc496-84a9-43f4-9d72-4ada436996b9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Pano Multiuso Microfibra 29x29cm</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>R$ 22,98</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Sacola De Papel P/vinho Un</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Chinelo Ipanema Only Adulto</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>R$ 34,98</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b195ac07-049f-401c-9b2f-d389e0e562ab.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Textil</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Havainas Unissex Top Marinho 39/40</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e1782d60-e342-4d53-a5ea-962748a5aeb2.jpg</t>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896942265842</t>
         </is>
       </c>
     </row>
